--- a/INTLINE/data/576/SGSE/Straits Times Index - Weekly.xlsx
+++ b/INTLINE/data/576/SGSE/Straits Times Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CIB2"/>
+  <dimension ref="A1:CID2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11674,15 +11674,25 @@
       </c>
       <c r="CHZ1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="CIA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="CIB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CIA1" s="1" t="inlineStr">
+      <c r="CIC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CIB1" s="1" t="inlineStr">
+      <c r="CID1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -18472,19 +18482,25 @@
         <v>3335.85</v>
       </c>
       <c r="CHY2" t="n">
-        <v>3348.46</v>
-      </c>
-      <c r="CHZ2" t="inlineStr">
+        <v>3361.11</v>
+      </c>
+      <c r="CHZ2" t="n">
+        <v>3356.9</v>
+      </c>
+      <c r="CIA2" t="n">
+        <v>3354.46</v>
+      </c>
+      <c r="CIB2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="CIA2" t="inlineStr">
+      <c r="CIC2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="CIB2" t="inlineStr">
+      <c r="CID2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>

--- a/INTLINE/data/576/SGSE/Straits Times Index - Weekly.xlsx
+++ b/INTLINE/data/576/SGSE/Straits Times Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CIL2"/>
+  <dimension ref="A1:CIM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11724,15 +11724,20 @@
       </c>
       <c r="CIJ1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-26</t>
+        </is>
+      </c>
+      <c r="CIK1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CIK1" s="1" t="inlineStr">
+      <c r="CIL1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CIL1" s="1" t="inlineStr">
+      <c r="CIM1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -18552,19 +18557,22 @@
         <v>3098.09</v>
       </c>
       <c r="CII2" t="n">
-        <v>3117.48</v>
-      </c>
-      <c r="CIJ2" t="inlineStr">
+        <v>3111.65</v>
+      </c>
+      <c r="CIJ2" t="n">
+        <v>3128.06</v>
+      </c>
+      <c r="CIK2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="CIK2" t="inlineStr">
+      <c r="CIL2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="CIL2" t="inlineStr">
+      <c r="CIM2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>
